--- a/Lab Sessions/Excel_Jackknife.xlsx
+++ b/Lab Sessions/Excel_Jackknife.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/errorarrtist/Desktop/UvA/Master/2024-2025/AE2/Lab Sessions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A142CA-04FE-3142-B698-260A172722F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19320" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$T$16</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -169,15 +188,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -188,6 +205,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -200,15 +220,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>444500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -217,11 +237,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -229,6 +252,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -241,15 +275,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>127000</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
+          <xdr:colOff>444500</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -258,11 +292,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -270,6 +307,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -282,13 +330,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>139700</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>63500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>600075</xdr:colOff>
+          <xdr:colOff>596900</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -299,11 +347,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -311,6 +362,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -323,15 +385,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
-          <xdr:colOff>523875</xdr:colOff>
+          <xdr:colOff>520700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -340,11 +402,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -352,6 +417,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -364,13 +440,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>21</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:colOff>406400</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -381,11 +457,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -393,6 +472,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -405,13 +495,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>469900</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -422,11 +512,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -434,6 +527,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -445,9 +549,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -485,7 +589,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -557,7 +661,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -730,25 +834,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="N7" zoomScale="165" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14:AA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="13" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="13" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -786,7 +890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -824,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -862,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -900,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -938,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -976,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1014,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1052,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1093,7 +1197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1140,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1184,15 +1288,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="Y12" s="4" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="Y12" t="s">
         <v>19</v>
       </c>
       <c r="AA12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1207,14 +1311,14 @@
       <c r="Q13" s="3"/>
       <c r="S13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="Y13" s="5" t="s">
+      <c r="Y13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1227,96 +1331,246 @@
         <f>AVERAGEIF(D2:D11,"=1",$B$2:$B$11)</f>
         <v>1.2203000506835275</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:M14" si="0">AVERAGEIF(E2:E11,"=1",$B$2:$B$11)</f>
+        <v>1.2187707710899858</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1846221688595298</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0344879848680777</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84533263089475863</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.176572345660885</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1690333325618272</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82537504474969314</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1515002051907715</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1740601519939522</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14" s="1">
+        <f>AVERAGE(D14:M14)</f>
+        <v>1.1000054686553009</v>
+      </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="1">
+        <f>PRODUCT((O14-B14),9)</f>
+        <v>0</v>
+      </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <f>PRODUCT(10,B14)-PRODUCT(9,O14)</f>
+        <v>1.1000054686553007</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="V14" s="1">
+        <f>SQRT(9*_xlfn.STDEV.P(D14:M14)^2)</f>
+        <v>0.4232783880263043</v>
+      </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1">
+        <f>(B14-1)/V14</f>
+        <v>0.23626405572373838</v>
+      </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="AA14" s="1">
+        <f>(S14-1)/V14</f>
+        <v>0.23626405572373785</v>
+      </c>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <f>B14^2</f>
+        <v>1.2100120310715683</v>
+      </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="D15" s="1">
+        <f>D14^2</f>
+        <v>1.4891322136982199</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:M15" si="1">E14^2</f>
+        <v>1.4854021924632785</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4033296829534563</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0701653908364162</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.71458725685545421</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.384322484573957</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3666389326406116</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68124396449555791</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3259527225543888</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3784172405000621</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="O15" s="1">
+        <f t="shared" ref="O15:O16" si="2">AVERAGE(D15:M15)</f>
+        <v>1.22991920815714</v>
+      </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1">
+        <f t="shared" ref="Q15:Q18" si="3">PRODUCT((O15-B15),9)</f>
+        <v>0.17916459377014493</v>
+      </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <f t="shared" ref="S15:S16" si="4">PRODUCT(10,B15)-PRODUCT(9,O15)</f>
+        <v>1.0308474373014231</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="V15" s="1">
+        <f t="shared" ref="V15:V16" si="5">SQRT(9*_xlfn.STDEV.P(D15:M15)^2)</f>
+        <v>0.86349657823139647</v>
+      </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1">
+        <f t="shared" ref="Y15:Y16" si="6">(B15-1)/V15</f>
+        <v>0.24321119083264053</v>
+      </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="1">
+        <f t="shared" ref="AA15:AA16" si="7">(S15-1)/V15</f>
+        <v>3.5723867446706623E-2</v>
+      </c>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <f>B14^3</f>
+        <v>1.3310198513174329</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="D16" s="1">
+        <f>D14^3</f>
+        <v>1.8171881158504113</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:M16" si="8">E14^3</f>
+        <v>1.8103647754872254</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6624154526452797</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.1070732386419229</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.60406392584148971</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6287555528262849</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5976464658335927</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="8"/>
+        <v>0.56228176768097948</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5268348320946408</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="8"/>
+        <v>1.6183447548925871</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3934968881794414</v>
+      </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.56229333175807605</v>
+      </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1">
+        <f t="shared" si="4"/>
+        <v>0.76872651955935645</v>
+      </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="V16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3373174374159791</v>
+      </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="Y16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.2475252636778919</v>
+      </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.17293835701979621</v>
+      </c>
       <c r="AB16" s="1"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1328,8 +1582,9 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1350,14 +1605,14 @@
       <c r="V19" t="s">
         <v>21</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="Y19" t="s">
         <v>19</v>
       </c>
       <c r="AA19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1368,7 +1623,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="O20" s="6"/>
+      <c r="O20" s="4"/>
       <c r="Q20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1378,14 +1633,14 @@
       <c r="V20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y20" s="5" t="s">
+      <c r="Y20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1413,7 +1668,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1441,7 +1696,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1469,10 +1724,10 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D1048576" s="1">
         <f>(D1048572-$O$15)^2</f>
-        <v>0</v>
+        <v>1.5127012585938862</v>
       </c>
     </row>
   </sheetData>
@@ -1488,15 +1743,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
+                <xdr:colOff>139700</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>444500</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>177800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1513,15 +1768,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
+                <xdr:colOff>127000</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>438150</xdr:colOff>
+                <xdr:colOff>444500</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1538,13 +1793,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>139700</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>63500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>600075</xdr:colOff>
+                <xdr:colOff>596900</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -1563,15 +1818,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>18</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>19</xdr:col>
-                <xdr:colOff>523875</xdr:colOff>
+                <xdr:colOff>520700</xdr:colOff>
                 <xdr:row>12</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>101600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1588,13 +1843,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>21</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:colOff>50800</xdr:colOff>
                 <xdr:row>10</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>23</xdr:col>
-                <xdr:colOff>400050</xdr:colOff>
+                <xdr:colOff>406400</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
@@ -1613,13 +1868,13 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:colOff>88900</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>469900</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -1636,24 +1891,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
